--- a/data/edited_data/%_male_users_parental_leave_2021.xlsx
+++ b/data/edited_data/%_male_users_parental_leave_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/female-labour/data/edited_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/edited_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{313B5C7D-C181-4174-A409-AA42D8135978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E53F51-C17B-48FF-BCBA-6F668110E055}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{313B5C7D-C181-4174-A409-AA42D8135978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{690EDF03-7140-4436-B813-F16249586AE1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{225A2ACB-425F-4D72-9F2D-08A698C603AB}"/>
   </bookViews>
@@ -104,10 +104,10 @@
     <t>country</t>
   </si>
   <si>
-    <t>%_male_users_parental_leave_2021</t>
-  </si>
-  <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>usage_men_parental_leave</t>
   </si>
 </sst>
 </file>
@@ -209,6 +209,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7426714E-FF61-483C-9E6D-3D640DC95458}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,12 +543,12 @@
     <col min="1" max="1" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -717,7 +721,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>37.9</v>
